--- a/docs/htr/eval_summary.xlsx
+++ b/docs/htr/eval_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenia/Desktop/thesis/magic_tagger/docs/htr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E059D45-4B5C-B14D-9D85-927322A0492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ECD849-508C-1B47-ACF3-8BE9050A9156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="14720" windowHeight="18440" xr2:uid="{41207BBE-5058-AE4D-AFB8-AA866F34ACEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>handwriting_id</t>
   </si>
@@ -202,6 +202,36 @@
   </si>
   <si>
     <t>p_CER_ge_50_transcrib_weighted</t>
+  </si>
+  <si>
+    <t>era_vene_02_606-607</t>
+  </si>
+  <si>
+    <t>era_vene_05_166-167</t>
+  </si>
+  <si>
+    <t>era_vene_06_380-381</t>
+  </si>
+  <si>
+    <t>era_vene_07_126-127</t>
+  </si>
+  <si>
+    <t>era_rkm_vene_03_258-259</t>
+  </si>
+  <si>
+    <t>era_vene_05_442-443</t>
+  </si>
+  <si>
+    <t>era_vene_12_138-139</t>
+  </si>
+  <si>
+    <t>era_vene_13_636-637</t>
+  </si>
+  <si>
+    <t>era_vene_15_134-135</t>
+  </si>
+  <si>
+    <t>era_vene_08_210-211</t>
   </si>
 </sst>
 </file>
@@ -352,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -384,134 +414,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -884,383 +818,417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD5EF3D-814F-2341-9AFA-FA307D30ABD5}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="8" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="11">
+      <c r="D2" s="4">
         <v>10.77</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="6">
         <v>0.24640000000000001</v>
       </c>
-      <c r="E2" s="4">
-        <v>33.43</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.52224736842105246</v>
-      </c>
-      <c r="G2" s="4">
-        <v>23.574999999999999</v>
+      <c r="F2" s="4">
+        <v>33.43</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.52224736842105246</v>
       </c>
       <c r="H2" s="4">
-        <v>0.4703</v>
+        <v>23.574999999999999</v>
       </c>
       <c r="I2" s="4">
+        <v>0.4703</v>
+      </c>
+      <c r="J2" s="4">
         <v>1</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="11">
+      <c r="D3" s="4">
         <v>49.18</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="6">
         <v>0.59240000000000004</v>
       </c>
-      <c r="E3" s="4">
-        <v>33.43</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.52224736842105246</v>
-      </c>
-      <c r="G3" s="4">
-        <v>23.574999999999999</v>
+      <c r="F3" s="4">
+        <v>33.43</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.52224736842105246</v>
       </c>
       <c r="H3" s="4">
-        <v>0.4703</v>
+        <v>23.574999999999999</v>
       </c>
       <c r="I3" s="4">
+        <v>0.4703</v>
+      </c>
+      <c r="J3" s="4">
         <v>0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.5641025641025641</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
+      <c r="D4" s="4">
         <v>76.819999999999993</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="6">
         <v>0.88939999999999997</v>
       </c>
-      <c r="E4" s="4">
-        <v>33.43</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.52224736842105246</v>
-      </c>
-      <c r="G4" s="4">
-        <v>23.574999999999999</v>
+      <c r="F4" s="4">
+        <v>33.43</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.52224736842105246</v>
       </c>
       <c r="H4" s="4">
-        <v>0.4703</v>
+        <v>23.574999999999999</v>
       </c>
       <c r="I4" s="4">
+        <v>0.4703</v>
+      </c>
+      <c r="J4" s="4">
         <v>0</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="11">
+      <c r="D5" s="4">
         <v>9.6</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="6">
         <v>0.2717</v>
       </c>
-      <c r="E5" s="4">
-        <v>33.43</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.52224736842105246</v>
-      </c>
-      <c r="G5" s="4">
-        <v>23.574999999999999</v>
+      <c r="F5" s="4">
+        <v>33.43</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.52224736842105246</v>
       </c>
       <c r="H5" s="4">
-        <v>0.4703</v>
+        <v>23.574999999999999</v>
       </c>
       <c r="I5" s="4">
+        <v>0.4703</v>
+      </c>
+      <c r="J5" s="4">
         <v>1</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="D6" s="4">
         <v>10.41</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <v>0.27310000000000001</v>
       </c>
-      <c r="E6" s="4">
-        <v>33.43</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.52224736842105246</v>
-      </c>
-      <c r="G6" s="4">
-        <v>23.574999999999999</v>
+      <c r="F6" s="4">
+        <v>33.43</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.52224736842105246</v>
       </c>
       <c r="H6" s="4">
-        <v>0.4703</v>
+        <v>23.574999999999999</v>
       </c>
       <c r="I6" s="4">
+        <v>0.4703</v>
+      </c>
+      <c r="J6" s="4">
         <v>1</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="11">
+      <c r="D7" s="4">
         <v>80.900000000000006</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <v>0.94239999999999902</v>
       </c>
-      <c r="E7" s="4">
-        <v>33.43</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.52224736842105246</v>
-      </c>
-      <c r="G7" s="4">
-        <v>23.574999999999999</v>
+      <c r="F7" s="4">
+        <v>33.43</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.52224736842105246</v>
       </c>
       <c r="H7" s="4">
-        <v>0.4703</v>
+        <v>23.574999999999999</v>
       </c>
       <c r="I7" s="4">
+        <v>0.4703</v>
+      </c>
+      <c r="J7" s="4">
         <v>0</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="8">
         <v>2</v>
       </c>
-      <c r="C8" s="11">
+      <c r="D8" s="4">
         <v>15.32</v>
       </c>
-      <c r="D8" s="9">
+      <c r="E8" s="9">
         <v>0.45189999999999902</v>
       </c>
-      <c r="E8" s="4">
-        <v>33.43</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.52224736842105246</v>
-      </c>
-      <c r="G8" s="4">
-        <v>23.574999999999999</v>
+      <c r="F8" s="4">
+        <v>33.43</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.52224736842105246</v>
       </c>
       <c r="H8" s="4">
-        <v>0.4703</v>
+        <v>23.574999999999999</v>
       </c>
       <c r="I8" s="4">
+        <v>0.4703</v>
+      </c>
+      <c r="J8" s="4">
         <v>1</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="8">
         <v>2</v>
       </c>
-      <c r="C9" s="11">
+      <c r="D9" s="4">
         <v>13.41</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="6">
         <v>0.35099999999999998</v>
       </c>
-      <c r="E9" s="4">
-        <v>33.43</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.52224736842105246</v>
-      </c>
-      <c r="G9" s="4">
-        <v>23.574999999999999</v>
+      <c r="F9" s="4">
+        <v>33.43</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.52224736842105246</v>
       </c>
       <c r="H9" s="4">
-        <v>0.4703</v>
+        <v>23.574999999999999</v>
       </c>
       <c r="I9" s="4">
+        <v>0.4703</v>
+      </c>
+      <c r="J9" s="4">
         <v>1</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="8">
         <v>2</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>31.83</v>
       </c>
-      <c r="D10" s="6">
-        <v>0.4703</v>
-      </c>
-      <c r="E10" s="4">
-        <v>33.43</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.52224736842105246</v>
-      </c>
-      <c r="G10" s="4">
-        <v>23.574999999999999</v>
+      <c r="E10" s="6">
+        <v>0.4703</v>
+      </c>
+      <c r="F10" s="4">
+        <v>33.43</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.52224736842105246</v>
       </c>
       <c r="H10" s="4">
-        <v>0.4703</v>
+        <v>23.574999999999999</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>0.4703</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>34.619999999999997</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <v>0.55649999999999999</v>
       </c>
-      <c r="E11" s="4">
-        <v>33.43</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.52224736842105246</v>
-      </c>
-      <c r="G11" s="4">
-        <v>23.574999999999999</v>
+      <c r="F11" s="4">
+        <v>33.43</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.52224736842105246</v>
       </c>
       <c r="H11" s="4">
-        <v>0.4703</v>
+        <v>23.574999999999999</v>
       </c>
       <c r="I11" s="4">
-        <v>0</v>
+        <v>0.4703</v>
       </c>
       <c r="J11" s="4">
         <v>0</v>
       </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:E2 A2:A4 C3:D7 E3:E11 B4:B11 C8 C9:D11">
-    <cfRule type="expression" dxfId="17" priority="5">
+  <conditionalFormatting sqref="C2:F2 A2:B4 D3:E7 F3:F11 C4:C11 D8 D9:E11">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>#REF!="bad"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>#REF!="done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J11">
-    <cfRule type="expression" dxfId="11" priority="1">
+  <conditionalFormatting sqref="H2:K11">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>#REF!="bad"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>#REF!="done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1272,12 +1240,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CA8CB1-A94D-264B-801C-1D93196522EA}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F21"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
     <col min="9" max="9" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1317,22 +1286,22 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <v>18</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <v>20</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="4">
         <v>10.77</v>
       </c>
       <c r="G2" s="6">
@@ -1356,22 +1325,22 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>19</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>21</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="4">
         <v>10.77</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1393,22 +1362,22 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>20</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>17</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="4">
         <v>49.18</v>
       </c>
       <c r="G4" s="6">
@@ -1428,22 +1397,22 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>22</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>22</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="4">
         <v>52.06</v>
       </c>
       <c r="G5" s="6">
@@ -1463,22 +1432,22 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>18</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <v>18</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="4">
         <v>76.819999999999993</v>
       </c>
       <c r="G6" s="6">
@@ -1498,22 +1467,22 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>18</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>18</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="4">
         <v>76.819999999999993</v>
       </c>
       <c r="G7" s="6">
@@ -1533,22 +1502,22 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>18</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>18</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="4">
         <v>9.6</v>
       </c>
       <c r="G8" s="6">
@@ -1568,22 +1537,22 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>18</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>18</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="4">
         <v>9.6</v>
       </c>
       <c r="G9" s="6">
@@ -1603,22 +1572,22 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>19</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>19</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="4">
         <v>10.41</v>
       </c>
       <c r="G10" s="6">
@@ -1638,22 +1607,22 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>19</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>19</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="4">
         <v>10.41</v>
       </c>
       <c r="G11" s="6">
@@ -1673,22 +1642,22 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="16">
         <v>21</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="16">
         <v>17</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="4">
         <v>80.900000000000006</v>
       </c>
       <c r="G12" s="6">
@@ -1708,22 +1677,22 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>20</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>20</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="4">
         <v>80.900000000000006</v>
       </c>
       <c r="G13" s="6">
@@ -1743,22 +1712,22 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <v>20</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <v>20</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="4">
         <v>15.32</v>
       </c>
       <c r="G14" s="9">
@@ -1778,22 +1747,22 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>20</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>20</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="4">
         <v>15.32</v>
       </c>
       <c r="G15" s="6">
@@ -1813,22 +1782,22 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>20</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>20</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="4">
         <v>13.41</v>
       </c>
       <c r="G16" s="6">
@@ -1848,22 +1817,22 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>20</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>20</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="4">
         <v>13.41</v>
       </c>
       <c r="G17" s="6">
@@ -1883,22 +1852,22 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <v>20</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <v>12</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="4">
         <v>31.83</v>
       </c>
       <c r="G18" s="6">
@@ -1918,22 +1887,22 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>20</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>20</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="4">
         <v>31.83</v>
       </c>
       <c r="G19" s="6">
@@ -1953,22 +1922,22 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>20</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="12">
         <v>19</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="4">
         <v>34.619999999999997</v>
       </c>
       <c r="G20" s="6">
@@ -1988,22 +1957,22 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="19">
         <v>20</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="19">
         <v>14</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="4">
         <v>34.619999999999997</v>
       </c>
       <c r="G21" s="6">
@@ -2024,10 +1993,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:K2 B2:E3 A2:A7 F3:G13 H3:K21 D4:E5 B6:E21 F14 F15:G21">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>#REF!="bad"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>#REF!="done"</formula>
     </cfRule>
   </conditionalFormatting>
